--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/3_Afyonkarahisar_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/3_Afyonkarahisar_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7106ADBE-CF74-4768-AE78-06106E200071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E51A2F77-4342-44C2-B907-6639673DCEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{92195088-3232-402A-A370-4B7B894B9C00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{EDF459A4-A37A-4644-8979-DFB84F8A1A61}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -820,18 +820,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Ana Başlık 2" xfId="1" xr:uid="{E9A4571F-3DB7-433D-B365-777453F17907}"/>
+    <cellStyle name="Ana Başlık 2" xfId="1" xr:uid="{FB959C8B-0B23-4761-B79C-4C801B2877A1}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{18331B54-5618-4CAD-BA8E-C8DD8D830670}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D3601F7F-992F-4841-9520-D956815FB9B1}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B52158DB-5540-41BB-AF4E-5F56F625AB39}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{68EF5635-E984-4BD0-A916-ECA3BA78DF2E}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{3D86AE90-EBC7-445C-918E-69390E3474F6}"/>
-    <cellStyle name="Normal 4 2" xfId="7" xr:uid="{6C220A94-4A09-45DB-8C0B-17201EABB2C1}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{7ADF73F0-D371-4F3A-B0C5-DFDC5750F8FE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{53C607A0-88DD-4B1A-95EA-61E5FD0CB1ED}"/>
-    <cellStyle name="Not 2" xfId="10" xr:uid="{CB5B0921-B30E-47CD-B9C8-06C12CCE3651}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{45F314E8-7573-4C66-B01D-8A01357168D2}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{777DBA35-8514-44EE-88FA-2ED80032AB05}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0CE6FFC0-68EA-4077-BD59-43C45C1C4B46}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4521AF42-8F61-400A-AED7-D240806C8227}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{D9704870-9218-4F77-B4FA-830F6FFCB3C2}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{8DC4FD1F-87CB-4449-880F-51AB7159159A}"/>
+    <cellStyle name="Normal 4 2" xfId="7" xr:uid="{EEB26857-C992-49FE-BC54-9CB19B9300B8}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{F295CBA1-DA6B-4FA6-B82D-A8D6678A2CBD}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{E939D107-6052-4346-AF50-158CD656CF5F}"/>
+    <cellStyle name="Not 2" xfId="10" xr:uid="{2AF9254C-F150-4809-810B-3FD8AF8FDB06}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{676CFC93-60E0-41E2-B3A5-6B592C4E43F8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1884B6-207B-4646-B0DA-205042093376}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C32696D-DFC7-4655-9BBF-82D28CDB18A5}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2499,7 +2499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854ED7AB-6C6C-46BA-9DF9-A1AF3B85BC35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C39DC76-523F-4EBB-9BC5-27A0C1FEBC89}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3781,7 +3781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0871A706-DADB-4097-9CD2-A57A2C7475B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F2E55B-5A81-44AB-8990-E99BF614BFFC}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5071,7 +5071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8785A5EE-0C3E-4124-B056-9B028E538989}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831D5DFB-83FB-4D5A-8E62-3AE505A8B38D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6357,7 +6357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32473CBB-D91A-459E-937A-5193D348B8D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6424D25A-90E7-4C79-9150-97F48304B681}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7631,7 +7631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5FB8B6-E0E0-4BCB-AF41-6222852137E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DC2DB6-CC07-498E-8308-B9AD77D7B907}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
